--- a/data/trans_orig/PER_DISPO_VERDE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_DISPO_VERDE-Estudios-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la disponibilidad de zonas verdes en Barcelona</t>
+          <t>Percepción de la disponibilidad de zonas verdes en Barcelona (tasa de respuesta: 99,83%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_DISPO_VERDE-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_DISPO_VERDE-Estudios-trans_orig.xlsx
@@ -738,12 +738,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>77343</t>
+          <t>76580</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>89911</t>
+          <t>90413</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>78,48%</t>
+          <t>77,7%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>91,23%</t>
+          <t>91,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>93211</t>
+          <t>95066</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>108347</t>
+          <t>108865</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -788,12 +788,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>77,61%</t>
+          <t>79,15%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>90,21%</t>
+          <t>90,64%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>176991</t>
+          <t>177607</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>196266</t>
+          <t>196247</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>80,95%</t>
+          <t>81,23%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>89,76%</t>
+          <t>89,75%</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8644</t>
+          <t>8142</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21212</t>
+          <t>21975</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>21,52%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11754</t>
+          <t>11236</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26890</t>
+          <t>25035</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>22390</t>
+          <t>22409</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>41665</t>
+          <t>41049</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>10,24%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>18,77%</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1081,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>305592</t>
+          <t>304997</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>321474</t>
+          <t>322215</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>85,9%</t>
+          <t>85,73%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>90,36%</t>
+          <t>90,57%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1116,12 +1116,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>292499</t>
+          <t>292541</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>311375</t>
+          <t>311212</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1131,12 +1131,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>82,59%</t>
+          <t>82,6%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>87,92%</t>
+          <t>87,87%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1151,12 +1151,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>603185</t>
+          <t>603661</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>628138</t>
+          <t>628628</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1166,12 +1166,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>84,96%</t>
+          <t>85,03%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>88,48%</t>
+          <t>88,55%</t>
         </is>
       </c>
     </row>
@@ -1194,12 +1194,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>34294</t>
+          <t>33553</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>50176</t>
+          <t>50771</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1209,12 +1209,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,1%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1229,12 +1229,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>42801</t>
+          <t>42964</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>61677</t>
+          <t>61635</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1244,12 +1244,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>17,41%</t>
+          <t>17,4%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1264,12 +1264,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>81806</t>
+          <t>81316</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>106759</t>
+          <t>106283</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1279,12 +1279,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>11,52%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>14,97%</t>
         </is>
       </c>
     </row>
@@ -1424,12 +1424,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>186011</t>
+          <t>185644</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>199707</t>
+          <t>199682</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>83,05%</t>
+          <t>82,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>89,16%</t>
+          <t>89,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1459,12 +1459,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>234604</t>
+          <t>233383</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>250674</t>
+          <t>250428</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>82,86%</t>
+          <t>82,43%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>88,54%</t>
+          <t>88,45%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1494,12 +1494,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>425222</t>
+          <t>423966</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>446858</t>
+          <t>446796</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1509,12 +1509,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>83,85%</t>
+          <t>83,6%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>88,12%</t>
+          <t>88,11%</t>
         </is>
       </c>
     </row>
@@ -1537,12 +1537,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>24269</t>
+          <t>24294</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37965</t>
+          <t>38332</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1552,12 +1552,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>32457</t>
+          <t>32703</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>48527</t>
+          <t>49748</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1587,12 +1587,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>60249</t>
+          <t>60311</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>81885</t>
+          <t>83141</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1622,12 +1622,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>16,4%</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>579081</t>
+          <t>578787</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>604765</t>
+          <t>604288</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1782,12 +1782,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>85,37%</t>
+          <t>85,33%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>89,16%</t>
+          <t>89,09%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1802,12 +1802,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>633058</t>
+          <t>632951</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>661843</t>
+          <t>663091</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1817,12 +1817,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>83,58%</t>
+          <t>83,57%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>87,38%</t>
+          <t>87,55%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1837,12 +1837,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>1221753</t>
+          <t>1220179</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>1259755</t>
+          <t>1259279</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1852,12 +1852,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>85,1%</t>
+          <t>84,99%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>87,74%</t>
+          <t>87,71%</t>
         </is>
       </c>
     </row>
@@ -1880,12 +1880,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>73534</t>
+          <t>74011</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>99218</t>
+          <t>99512</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1895,12 +1895,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>95566</t>
+          <t>94318</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>124351</t>
+          <t>124458</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1930,12 +1930,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1950,12 +1950,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>175952</t>
+          <t>176428</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>213954</t>
+          <t>215528</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1965,12 +1965,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>15,01%</t>
         </is>
       </c>
     </row>
